--- a/FileQuiz-KahootTemplate.xlsx
+++ b/FileQuiz-KahootTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\KahootFilmQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48B88A4-4F61-4313-891F-C3C3AA9F8E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA932FD-A9A7-46C5-816A-46A8B416DDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1275" windowWidth="27990" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,9 +330,6 @@
     <t>The Secret Life of Pets 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Peppa Pig</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Thundercats</t>
   </si>
 </sst>
 </file>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1740,10 +1740,10 @@
         <v>46</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="G9" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H9" s="16">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H10" s="17">
         <v>2</v>
@@ -1833,7 +1833,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H11" s="17">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H12" s="17">
         <v>4</v>
@@ -1923,7 +1923,7 @@
         <v>62</v>
       </c>
       <c r="G13" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H13" s="17">
         <v>1</v>
@@ -1968,7 +1968,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H14" s="17">
         <v>2</v>
@@ -2013,7 +2013,7 @@
         <v>66</v>
       </c>
       <c r="G15" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H15" s="17">
         <v>4</v>
@@ -2058,7 +2058,7 @@
         <v>71</v>
       </c>
       <c r="G16" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H16" s="17">
         <v>3</v>
@@ -2103,7 +2103,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H17" s="17">
         <v>4</v>
@@ -2148,7 +2148,7 @@
         <v>81</v>
       </c>
       <c r="G18" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H18" s="17">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>85</v>
       </c>
       <c r="G19" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H19" s="17">
         <v>2</v>
@@ -2238,7 +2238,7 @@
         <v>89</v>
       </c>
       <c r="G20" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H20" s="17">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>93</v>
       </c>
       <c r="G21" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H21" s="17">
         <v>2</v>
@@ -2328,7 +2328,7 @@
         <v>94</v>
       </c>
       <c r="G22" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H22" s="17">
         <v>3</v>
@@ -2373,7 +2373,7 @@
         <v>99</v>
       </c>
       <c r="G23" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H23" s="17">
         <v>2</v>
@@ -2406,19 +2406,19 @@
         <v>27</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H24" s="17">
         <v>3</v>
@@ -2451,19 +2451,19 @@
         <v>28</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H25" s="17">
         <v>4</v>
@@ -2496,19 +2496,19 @@
         <v>29</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="G26" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H26" s="17">
         <v>1</v>
@@ -2541,19 +2541,19 @@
         <v>30</v>
       </c>
       <c r="C27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="F27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="G27" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H27" s="17">
         <v>2</v>
@@ -2586,19 +2586,19 @@
         <v>31</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="F28" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>120</v>
-      </c>
       <c r="G28" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H28" s="17">
         <v>1</v>
@@ -2631,19 +2631,19 @@
         <v>32</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="F29" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>123</v>
-      </c>
       <c r="G29" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H29" s="17">
         <v>1</v>
@@ -2679,16 +2679,16 @@
         <v>61</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>58</v>
       </c>
       <c r="G30" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H30" s="17">
         <v>4</v>
@@ -2721,19 +2721,19 @@
         <v>34</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G31" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H31" s="17">
         <v>4</v>
@@ -2766,19 +2766,19 @@
         <v>35</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>131</v>
-      </c>
       <c r="G32" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H32" s="17">
         <v>3</v>
@@ -2811,19 +2811,19 @@
         <v>36</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>64</v>
       </c>
       <c r="G33" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H33" s="17">
         <v>4</v>
@@ -2859,16 +2859,16 @@
         <v>55</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="F34" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>139</v>
-      </c>
       <c r="G34" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H34" s="17">
         <v>2</v>
@@ -2901,19 +2901,19 @@
         <v>38</v>
       </c>
       <c r="C35" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="E35" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="G35" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H35" s="17">
         <v>3</v>
@@ -2946,19 +2946,19 @@
         <v>39</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H36" s="17">
         <v>4</v>
@@ -2991,19 +2991,19 @@
         <v>40</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="F37" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="24" t="s">
-        <v>152</v>
-      </c>
       <c r="G37" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H37" s="17">
         <v>1</v>
@@ -3036,19 +3036,19 @@
         <v>41</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H38" s="17">
         <v>4</v>
